--- a/hardware/manufacturer_files/BOM_CLEVO_POWER_SUPPLY_OTHER_2025-01-20.xlsx
+++ b/hardware/manufacturer_files/BOM_CLEVO_POWER_SUPPLY_OTHER_2025-01-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnche\Desktop\Github_Clone\crps_notebook_power\hardware\manufacturer_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB21B6-C2B4-4AE9-A8ED-BD0C6251DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFE37ED-E29B-45E7-BB5B-A33DAEEEE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -115,6 +115,26 @@
   </si>
   <si>
     <t>颜色分类：双排2*3p=6p(10条)  线长：10CM  杜邦线：母对母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.TlGIp5QQ2UGUX7f?tk=RE26eej4Myp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8AWG（8.3平方） 外径6.3mm 1米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模耐高温 特软硅胶线16AWG14 12 10 8 6awg4 3 25平方35 50平方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色随便</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,7 +243,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,7 +541,7 @@
     <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +572,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -574,8 +599,9 @@
       <c r="J2" s="5">
         <v>10</v>
       </c>
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>1</v>
@@ -598,8 +624,9 @@
       <c r="J3" s="5">
         <v>10</v>
       </c>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>1</v>
@@ -624,8 +651,9 @@
       <c r="J4" s="5">
         <v>8</v>
       </c>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>1</v>
@@ -648,12 +676,50 @@
       <c r="J5" s="5">
         <v>8.25</v>
       </c>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J6" s="8">
-        <f>SUM(J2:J5)</f>
-        <v>36.25</v>
-      </c>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10">
+        <f>SUM(J2:J6)</f>
+        <v>55.17</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -661,6 +727,7 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{775945E4-C5A9-48C3-A817-2D85F2F79EB3}"/>
     <hyperlink ref="H3" r:id="rId2" display="https://e.tb.cn/h.TlHds0XDsAa0lsO?tk=yULXe3Htfin" xr:uid="{5574B0A9-C19D-4796-965E-023C4D5DC90B}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{99C98460-70AE-412C-B671-2133890EB1E4}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{03DCDF92-4E0F-4942-9B4E-5B5B59B8AF8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
